--- a/projektKape/bin/Debug/ect-excel-format-report.xlsx
+++ b/projektKape/bin/Debug/ect-excel-format-report.xlsx
@@ -16,7 +16,7 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Titles" localSheetId="1">Sheet2!$1:$6</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="1">Sheet2!$5:$6</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="17">
   <si>
     <t>Possible solution</t>
   </si>
@@ -59,34 +59,40 @@
         }</t>
   </si>
   <si>
-    <t>QUANTITY SOLD</t>
-  </si>
-  <si>
     <t>ITEM NAME</t>
   </si>
   <si>
     <t>ECT PHARMACY</t>
   </si>
   <si>
-    <t>RAW PRICE</t>
-  </si>
-  <si>
     <t>SRP</t>
   </si>
   <si>
     <t>INCOME</t>
   </si>
   <si>
-    <t>SUPPLIER NAME</t>
-  </si>
-  <si>
-    <t>SRP TOTAL</t>
-  </si>
-  <si>
-    <t>RAW TOTAL</t>
-  </si>
-  <si>
     <t>DAILY REPORT: 8/17/2017</t>
+  </si>
+  <si>
+    <t>SUPPLIER</t>
+  </si>
+  <si>
+    <t>NAME</t>
+  </si>
+  <si>
+    <t>SOLD</t>
+  </si>
+  <si>
+    <t>QUANTITY</t>
+  </si>
+  <si>
+    <t>RAW</t>
+  </si>
+  <si>
+    <t>TOTAL</t>
+  </si>
+  <si>
+    <t>PRICE</t>
   </si>
 </sst>
 </file>
@@ -143,7 +149,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -153,12 +159,22 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -481,82 +497,98 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:H11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="23.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.5546875" customWidth="1"/>
-    <col min="3" max="3" width="16.5546875" customWidth="1"/>
-    <col min="4" max="4" width="13.5546875" customWidth="1"/>
-    <col min="5" max="5" width="12.6640625" customWidth="1"/>
-    <col min="7" max="7" width="12" customWidth="1"/>
-    <col min="8" max="8" width="15" customWidth="1"/>
+    <col min="2" max="2" width="22.109375" customWidth="1"/>
+    <col min="3" max="3" width="12.77734375" style="3" customWidth="1"/>
+    <col min="4" max="8" width="12.77734375" style="5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="4"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="3"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F5" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
+      <c r="G5" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="H5" s="10" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="F6" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="G6" s="5" t="s">
+      <c r="B6" s="10"/>
+      <c r="C6" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="H6" s="5" t="s">
-        <v>10</v>
-      </c>
+      <c r="D6" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="F6" s="10"/>
+      <c r="G6" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="H6" s="10"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7" s="8"/>
-      <c r="D7" s="7"/>
+      <c r="A7" s="6"/>
+      <c r="D7" s="9"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8" s="8"/>
+      <c r="A8" s="6"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A9" s="8"/>
+      <c r="A9" s="6"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A10" s="8"/>
+      <c r="A10" s="6"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11" s="8"/>
+      <c r="A11" s="6"/>
     </row>
   </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="H5:H6"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="B5:B6"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
 </worksheet>

--- a/projektKape/bin/Debug/ect-excel-format-report.xlsx
+++ b/projektKape/bin/Debug/ect-excel-format-report.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS PC\Documents\Backup\Github\ECT PHARMACY\projektKape\projektKape\bin\Debug\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS PC\Documents\Backup\Github\projektKape\projektKape\bin\Debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1176" yWindow="0" windowWidth="10248" windowHeight="6672" activeTab="1"/>
+    <workbookView xWindow="1170" yWindow="0" windowWidth="10245" windowHeight="6675" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -99,7 +99,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -117,6 +117,14 @@
     </font>
     <font>
       <sz val="8"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -149,7 +157,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -174,6 +182,10 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -461,14 +473,14 @@
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="41" customWidth="1"/>
-    <col min="2" max="2" width="35.109375" customWidth="1"/>
-    <col min="3" max="3" width="59.5546875" customWidth="1"/>
+    <col min="2" max="2" width="35.140625" customWidth="1"/>
+    <col min="3" max="3" width="59.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="25.8" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:3" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -476,7 +488,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="225.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" ht="270.75" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -498,30 +510,32 @@
   <dimension ref="A2:H11"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.109375" customWidth="1"/>
-    <col min="3" max="3" width="12.77734375" style="3" customWidth="1"/>
-    <col min="4" max="8" width="12.77734375" style="5" customWidth="1"/>
+    <col min="1" max="1" width="23.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.140625" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" style="3" customWidth="1"/>
+    <col min="4" max="8" width="12.7109375" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" s="4" t="s">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="11" t="s">
         <v>6</v>
       </c>
       <c r="B2" s="4"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="G2" s="12"/>
+      <c r="H2" s="12"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>9</v>
       </c>
       <c r="B3" s="3"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
         <v>10</v>
       </c>
@@ -547,7 +561,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
         <v>11</v>
       </c>
@@ -567,27 +581,28 @@
       </c>
       <c r="H6" s="10"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="6"/>
       <c r="D7" s="9"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="6"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="6"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="6"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="6"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="4">
     <mergeCell ref="H5:H6"/>
     <mergeCell ref="F5:F6"/>
     <mergeCell ref="B5:B6"/>
+    <mergeCell ref="G2:H2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
